--- a/static/data/sku-data-base.xlsx
+++ b/static/data/sku-data-base.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сотрудник ОБК Групп\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79858\Documents\Flask-App-F\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC9E4DB-0D5C-47A8-BA49-B89E021861DD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -564,8 +565,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -757,6 +758,12 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -772,6 +779,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -784,26 +800,19 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFC8282"/>
+          <bgColor rgb="FFFC8282"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1042,17 +1051,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133:C134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
@@ -1060,7 +1069,7 @@
     <col min="4" max="4" width="20.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1071,8 +1080,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1082,8 +1091,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1091,8 +1100,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1100,8 +1109,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1118,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:3">
+      <c r="A6" s="20"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1127,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:3">
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1136,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:3">
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1136,8 +1145,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:3">
+      <c r="A9" s="20"/>
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1145,8 +1154,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20"/>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1154,8 +1163,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:3">
+      <c r="A11" s="20"/>
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1163,8 +1172,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:3">
+      <c r="A12" s="20"/>
       <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1172,8 +1181,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:3">
+      <c r="A13" s="20"/>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
@@ -1181,8 +1190,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:3">
+      <c r="A14" s="20"/>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1190,8 +1199,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:3">
+      <c r="A15" s="20"/>
       <c r="B15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1199,8 +1208,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:3">
+      <c r="A16" s="20"/>
       <c r="B16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1208,8 +1217,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:3">
+      <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1217,8 +1226,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:3">
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1226,8 +1235,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1237,8 +1246,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>27</v>
       </c>
@@ -1246,8 +1255,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+    <row r="21" spans="1:3">
+      <c r="A21" s="21"/>
       <c r="B21" s="4" t="s">
         <v>29</v>
       </c>
@@ -1255,8 +1264,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+    <row r="22" spans="1:3">
+      <c r="A22" s="21"/>
       <c r="B22" s="4" t="s">
         <v>31</v>
       </c>
@@ -1264,8 +1273,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:3">
+      <c r="A23" s="21"/>
       <c r="B23" s="4" t="s">
         <v>32</v>
       </c>
@@ -1273,8 +1282,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:3">
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
@@ -1282,8 +1291,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+    <row r="25" spans="1:3">
+      <c r="A25" s="21"/>
       <c r="B25" s="4" t="s">
         <v>36</v>
       </c>
@@ -1291,8 +1300,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+    <row r="26" spans="1:3">
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
@@ -1300,8 +1309,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+    <row r="27" spans="1:3">
+      <c r="A27" s="21"/>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
@@ -1309,8 +1318,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1320,8 +1329,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="22"/>
       <c r="B29" s="6" t="s">
         <v>43</v>
       </c>
@@ -1329,8 +1338,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+    <row r="30" spans="1:3">
+      <c r="A30" s="22"/>
       <c r="B30" s="6" t="s">
         <v>44</v>
       </c>
@@ -1338,8 +1347,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+    <row r="31" spans="1:3">
+      <c r="A31" s="22"/>
       <c r="B31" s="6" t="s">
         <v>45</v>
       </c>
@@ -1347,8 +1356,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+    <row r="32" spans="1:3">
+      <c r="A32" s="22"/>
       <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
@@ -1356,8 +1365,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -1367,8 +1376,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:3">
+      <c r="A34" s="23"/>
       <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
@@ -1376,8 +1385,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1387,8 +1396,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
+    <row r="36" spans="1:3">
+      <c r="A36" s="24"/>
       <c r="B36" s="8" t="s">
         <v>54</v>
       </c>
@@ -1396,8 +1405,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+    <row r="37" spans="1:3">
+      <c r="A37" s="24"/>
       <c r="B37" s="8" t="s">
         <v>55</v>
       </c>
@@ -1405,8 +1414,8 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+    <row r="38" spans="1:3">
+      <c r="A38" s="24"/>
       <c r="B38" s="8" t="s">
         <v>56</v>
       </c>
@@ -1414,8 +1423,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -1425,8 +1434,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
+    <row r="40" spans="1:3">
+      <c r="A40" s="28"/>
       <c r="B40" s="9" t="s">
         <v>60</v>
       </c>
@@ -1434,8 +1443,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+    <row r="41" spans="1:3">
+      <c r="A41" s="28"/>
       <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
@@ -1443,8 +1452,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="29" t="s">
         <v>62</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -1454,8 +1463,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24"/>
+    <row r="43" spans="1:3">
+      <c r="A43" s="29"/>
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -1463,8 +1472,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44" s="30" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -1474,8 +1483,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+    <row r="45" spans="1:3">
+      <c r="A45" s="30"/>
       <c r="B45" s="11" t="s">
         <v>68</v>
       </c>
@@ -1483,8 +1492,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="31" t="s">
         <v>69</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -1494,8 +1503,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
+    <row r="47" spans="1:3">
+      <c r="A47" s="31"/>
       <c r="B47" s="12" t="s">
         <v>72</v>
       </c>
@@ -1503,8 +1512,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
+    <row r="48" spans="1:3">
+      <c r="A48" s="31"/>
       <c r="B48" s="12" t="s">
         <v>74</v>
       </c>
@@ -1512,8 +1521,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="26"/>
+    <row r="49" spans="1:4">
+      <c r="A49" s="31"/>
       <c r="B49" s="12" t="s">
         <v>76</v>
       </c>
@@ -1521,8 +1530,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="19" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -1532,8 +1541,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+    <row r="51" spans="1:4">
+      <c r="A51" s="21"/>
       <c r="B51" s="4" t="s">
         <v>80</v>
       </c>
@@ -1541,8 +1550,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="25" t="s">
         <v>82</v>
       </c>
       <c r="B52" s="13" t="s">
@@ -1552,8 +1561,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="25"/>
       <c r="B53" s="13" t="s">
         <v>85</v>
       </c>
@@ -1561,8 +1570,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
+    <row r="54" spans="1:4">
+      <c r="A54" s="25"/>
       <c r="B54" s="13" t="s">
         <v>86</v>
       </c>
@@ -1570,8 +1579,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
+    <row r="55" spans="1:4">
+      <c r="A55" s="25"/>
       <c r="B55" s="13" t="s">
         <v>88</v>
       </c>
@@ -1579,8 +1588,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
+    <row r="56" spans="1:4">
+      <c r="A56" s="26"/>
       <c r="B56" s="14" t="s">
         <v>90</v>
       </c>
@@ -1588,8 +1597,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="29" t="s">
+    <row r="57" spans="1:4">
+      <c r="A57" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B57" s="15" t="s">
@@ -1598,912 +1607,916 @@
       <c r="C57" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
+      <c r="D57" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="27"/>
       <c r="B58" s="15" t="s">
         <v>93</v>
       </c>
       <c r="C58" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D58" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
+      <c r="D58" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="27"/>
       <c r="B59" s="15" t="s">
         <v>94</v>
       </c>
       <c r="C59" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
+      <c r="D59" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="27"/>
       <c r="B60" s="15" t="s">
         <v>95</v>
       </c>
       <c r="C60" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
+      <c r="D60" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="27"/>
       <c r="B61" s="15" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
+      <c r="D61" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="27"/>
       <c r="B62" s="15" t="s">
         <v>97</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
+      <c r="D62" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="27"/>
       <c r="B63" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C63" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D63" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
+      <c r="D63" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="27"/>
       <c r="B64" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D64" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
+      <c r="D64" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="27"/>
       <c r="B65" s="15" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
+      <c r="D65" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="27"/>
       <c r="B66" s="15" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="D66" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
+      <c r="D66" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="27"/>
       <c r="B67" s="15" t="s">
         <v>102</v>
       </c>
       <c r="C67" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D67" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
+      <c r="D67" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="27"/>
       <c r="B68" s="15" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
+      <c r="D68" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="27"/>
       <c r="B69" s="15" t="s">
         <v>104</v>
       </c>
       <c r="C69" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
+      <c r="D69" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="27"/>
       <c r="B70" s="15" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
+      <c r="D70" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="27"/>
       <c r="B71" s="15" t="s">
         <v>106</v>
       </c>
       <c r="C71" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
+      <c r="D71" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="27"/>
       <c r="B72" s="15" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
+      <c r="D72" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="27"/>
       <c r="B73" s="15" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
+      <c r="D73" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="27"/>
       <c r="B74" s="15" t="s">
         <v>109</v>
       </c>
       <c r="C74" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
+      <c r="D74" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="27"/>
       <c r="B75" s="15" t="s">
         <v>110</v>
       </c>
       <c r="C75" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
+      <c r="D75" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="27"/>
       <c r="B76" s="15" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
+      <c r="D76" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="27"/>
       <c r="B77" s="15" t="s">
         <v>112</v>
       </c>
       <c r="C77" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
+      <c r="D77" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="27"/>
       <c r="B78" s="15" t="s">
         <v>113</v>
       </c>
       <c r="C78" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
+      <c r="D78" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="27"/>
       <c r="B79" s="15" t="s">
         <v>114</v>
       </c>
       <c r="C79" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
+      <c r="D79" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="27"/>
       <c r="B80" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C80" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
+      <c r="D80" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="27"/>
       <c r="B81" s="15" t="s">
         <v>116</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
+      <c r="D81" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="27"/>
       <c r="B82" s="15" t="s">
         <v>117</v>
       </c>
       <c r="C82" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
+      <c r="D82" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="27"/>
       <c r="B83" s="15" t="s">
         <v>118</v>
       </c>
       <c r="C83" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
+      <c r="D83" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="27"/>
       <c r="B84" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
+      <c r="D84" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="27"/>
       <c r="B85" s="15" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
+      <c r="D85" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="27"/>
       <c r="B86" s="15" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
+      <c r="D86" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="27"/>
       <c r="B87" s="15" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
+      <c r="D87" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="27"/>
       <c r="B88" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
+      <c r="D88" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="27"/>
       <c r="B89" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C89" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D89" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
+      <c r="D89" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="27"/>
       <c r="B90" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D90" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
+      <c r="D90" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="27"/>
       <c r="B91" s="15" t="s">
         <v>126</v>
       </c>
       <c r="C91" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D91" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
+      <c r="D91" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="27"/>
       <c r="B92" s="15" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D92" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
+      <c r="D92" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="27"/>
       <c r="B93" s="15" t="s">
         <v>128</v>
       </c>
       <c r="C93" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
+      <c r="D93" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="27"/>
       <c r="B94" s="15" t="s">
         <v>129</v>
       </c>
       <c r="C94" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
+      <c r="D94" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="27"/>
       <c r="B95" s="15" t="s">
         <v>130</v>
       </c>
       <c r="C95" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D95" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
+      <c r="D95" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="27"/>
       <c r="B96" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C96" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D96" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
+      <c r="D96" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="27"/>
       <c r="B97" s="15" t="s">
         <v>132</v>
       </c>
       <c r="C97" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
+      <c r="D97" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="27"/>
       <c r="B98" s="15" t="s">
         <v>133</v>
       </c>
       <c r="C98" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
+      <c r="D98" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="27"/>
       <c r="B99" s="17" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="30">
+      <c r="D99" s="18">
         <v>772603495456</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
+    <row r="100" spans="1:4">
+      <c r="A100" s="27"/>
       <c r="B100" s="17" t="s">
         <v>135</v>
       </c>
       <c r="C100" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
+      <c r="D100" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="27"/>
       <c r="B101" s="17" t="s">
         <v>136</v>
       </c>
       <c r="C101" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
+      <c r="D101" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="27"/>
       <c r="B102" s="17" t="s">
         <v>137</v>
       </c>
       <c r="C102" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
+      <c r="D102" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="27"/>
       <c r="B103" s="17" t="s">
         <v>138</v>
       </c>
       <c r="C103" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
+      <c r="D103" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="27"/>
       <c r="B104" s="17" t="s">
         <v>139</v>
       </c>
       <c r="C104" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
+      <c r="D104" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="27"/>
       <c r="B105" s="17" t="s">
         <v>140</v>
       </c>
       <c r="C105" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D105" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
+      <c r="D105" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="27"/>
       <c r="B106" s="17" t="s">
         <v>141</v>
       </c>
       <c r="C106" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
+      <c r="D106" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="27"/>
       <c r="B107" s="17" t="s">
         <v>142</v>
       </c>
       <c r="C107" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
+      <c r="D107" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="27"/>
       <c r="B108" s="17" t="s">
         <v>143</v>
       </c>
       <c r="C108" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
+      <c r="D108" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="27"/>
       <c r="B109" s="17" t="s">
         <v>144</v>
       </c>
       <c r="C109" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
+      <c r="D109" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="27"/>
       <c r="B110" s="17" t="s">
         <v>145</v>
       </c>
       <c r="C110" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
+      <c r="D110" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="27"/>
       <c r="B111" s="17" t="s">
         <v>146</v>
       </c>
       <c r="C111" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
+      <c r="D111" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="27"/>
       <c r="B112" s="17" t="s">
         <v>147</v>
       </c>
       <c r="C112" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
+      <c r="D112" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="27"/>
       <c r="B113" s="17" t="s">
         <v>148</v>
       </c>
       <c r="C113" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
+      <c r="D113" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="27"/>
       <c r="B114" s="17" t="s">
         <v>149</v>
       </c>
       <c r="C114" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
+      <c r="D114" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="27"/>
       <c r="B115" s="17" t="s">
         <v>150</v>
       </c>
       <c r="C115" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
+      <c r="D115" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="27"/>
       <c r="B116" s="17" t="s">
         <v>151</v>
       </c>
       <c r="C116" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
+      <c r="D116" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="27"/>
       <c r="B117" s="17" t="s">
         <v>152</v>
       </c>
       <c r="C117" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
+      <c r="D117" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="27"/>
       <c r="B118" s="17" t="s">
         <v>153</v>
       </c>
       <c r="C118" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
+      <c r="D118" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="27"/>
       <c r="B119" s="17" t="s">
         <v>154</v>
       </c>
       <c r="C119" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
+      <c r="D119" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="27"/>
       <c r="B120" s="17" t="s">
         <v>155</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
+      <c r="D120" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="27"/>
       <c r="B121" s="17" t="s">
         <v>156</v>
       </c>
       <c r="C121" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
+      <c r="D121" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="27"/>
       <c r="B122" s="17" t="s">
         <v>157</v>
       </c>
       <c r="C122" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
+      <c r="D122" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="27"/>
       <c r="B123" s="17" t="s">
         <v>158</v>
       </c>
       <c r="C123" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
+      <c r="D123" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="27"/>
       <c r="B124" s="17" t="s">
         <v>159</v>
       </c>
       <c r="C124" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
+      <c r="D124" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="27"/>
       <c r="B125" s="17" t="s">
         <v>160</v>
       </c>
       <c r="C125" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
+      <c r="D125" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="27"/>
       <c r="B126" s="17" t="s">
         <v>161</v>
       </c>
       <c r="C126" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
+      <c r="D126" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="27"/>
       <c r="B127" s="17" t="s">
         <v>162</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="31">
-        <v>9728069117</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
+      <c r="D127" s="19">
+        <v>9728069117</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="27"/>
       <c r="B128" s="17" t="s">
         <v>163</v>
       </c>
       <c r="C128" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="D128" s="30">
+      <c r="D128" s="18">
         <v>772603495456</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
+    <row r="129" spans="1:4">
+      <c r="A129" s="27"/>
       <c r="B129" s="17" t="s">
         <v>164</v>
       </c>
       <c r="C129" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="D129" s="30">
+      <c r="D129" s="18">
         <v>772603495456</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
+    <row r="130" spans="1:4">
+      <c r="A130" s="27"/>
       <c r="B130" s="17" t="s">
         <v>165</v>
       </c>
       <c r="C130" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D130" s="30">
+      <c r="D130" s="18">
         <v>772603495456</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
+    <row r="131" spans="1:4">
+      <c r="A131" s="27"/>
       <c r="B131" s="17" t="s">
         <v>166</v>
       </c>
       <c r="C131" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="D131" s="30">
+      <c r="D131" s="18">
         <v>772603495456</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
+    <row r="132" spans="1:4">
+      <c r="A132" s="27"/>
       <c r="B132" s="17" t="s">
         <v>167</v>
       </c>
       <c r="C132" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D132" s="30">
+      <c r="D132" s="18">
         <v>772603495456</v>
       </c>
     </row>
+    <row r="133" spans="1:4">
+      <c r="B133" s="17"/>
+      <c r="C133" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A132"/>
@@ -2519,13 +2532,18 @@
     <mergeCell ref="A35:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="B57:B98">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A5&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B99:B132">
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$A5&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B133">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A39&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data/sku-data-base.xlsx
+++ b/static/data/sku-data-base.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D304C-0E89-45AC-963B-6A4E559348B4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C94E11-C18A-4F44-A9CF-384DA8DA4F2D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="210">
   <si>
     <t>Продавец</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Интеграл</t>
   </si>
   <si>
-    <t>SC-1-1</t>
-  </si>
-  <si>
     <t>Svetocopy 1</t>
   </si>
   <si>
@@ -647,6 +644,12 @@
   </si>
   <si>
     <t>6565</t>
+  </si>
+  <si>
+    <t>trans-case-iphone13-pro</t>
+  </si>
+  <si>
+    <t>это эксель</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1047,7 @@
   <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>208</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1080,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1091,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1102,10 +1105,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1113,10 +1116,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1124,10 +1127,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1135,10 +1138,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1146,10 +1149,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1157,10 +1160,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1168,10 +1171,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1179,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1190,10 +1193,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,10 +1204,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1212,10 +1215,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1223,10 +1226,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1234,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1245,10 +1248,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1256,10 +1259,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1267,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1278,10 +1281,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1289,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1300,10 +1303,10 @@
         <v>3</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1311,10 +1314,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1322,10 +1325,10 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1333,10 +1336,10 @@
         <v>3</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1344,10 +1347,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1355,10 +1358,10 @@
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1366,10 +1369,10 @@
         <v>3</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1377,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,10 +1391,10 @@
         <v>3</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1399,10 +1402,10 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1410,10 +1413,10 @@
         <v>3</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1421,10 +1424,10 @@
         <v>3</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1432,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1443,10 +1446,10 @@
         <v>3</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1454,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1465,10 +1468,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1476,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="B39" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1487,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1498,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1509,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1520,10 +1523,10 @@
         <v>3</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1531,10 +1534,10 @@
         <v>3</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1542,10 +1545,10 @@
         <v>3</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1553,10 +1556,10 @@
         <v>3</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1564,10 +1567,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1575,10 +1578,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1586,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1597,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1608,10 +1611,10 @@
         <v>3</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1619,1330 +1622,1330 @@
         <v>3</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C91" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C120" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B133" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B136" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C136" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B167" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
